--- a/biology/Botanique/Kandil_Sinap/Kandil_Sinap.xlsx
+++ b/biology/Botanique/Kandil_Sinap/Kandil_Sinap.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kandil Sinap est une variété de pomme découverte en Turquie vers 1800 qui était très prisée à Paris à la fin du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kandil Sinap signifie "bougie de Sinap" en turc en référence à la forme allongée de la pomme, au port érigé et colonnaire de l'arbre et à sa provenance, le village de Sinap dans la région d’Erdemli, province de Mersin en Turquie. 
 </t>
@@ -542,7 +556,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bougie,
 Jubilee.</t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kandil Sinap est une petite pomme longue, étroite et cylindrique à l'épiderme rouge sur fond jaune. Elle marque facilement en cas de choc.
 Sa chair est croquante, juteuse, fine et parfumée.
@@ -606,13 +624,15 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est peu vigoureux mais très productif et régulier. Sur porte-greffe nain, il a un port pyramidal étroit de type spur.
 Il fleurit à mi-saison (deux jours après la Golden delicious) et est à maturité tardive. 
 Elle est pollinisée par Pomme d'Api, Api noir, Cox's Orange Pippin, Freyberg, Golden Delicious, Grenadier, James Grieve, Peasgood's Nonsuch, Rival et Worcester Pearmain.
-Selon Mitchourine[1], la variété se reproduirait assez fidèlement par semis.
-Le phénotype de Kandil Sinap est un des plus particuliers parmi de très nombreux cultivars de pommes[2].
+Selon Mitchourine, la variété se reproduirait assez fidèlement par semis.
+Le phénotype de Kandil Sinap est un des plus particuliers parmi de très nombreux cultivars de pommes.
 </t>
         </is>
       </c>
